--- a/medicine/Enfance/Étienne_Willem/Étienne_Willem.xlsx
+++ b/medicine/Enfance/Étienne_Willem/Étienne_Willem.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89tienne_Willem</t>
+          <t>Étienne_Willem</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Étienne Willem, né le 11 septembre 1972 à Charleroi (province de Hainaut), est un auteur de bande dessinée belge. Après une première expérience au studio d'animation 352 au Luxembourg, il se lance dans la bande dessinée en 2004.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89tienne_Willem</t>
+          <t>Étienne_Willem</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,17 +523,19 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Étienne Willem naît le 11 septembre 1972 à Charleroi[1],[2]. Il fait des études d’histoire à l’université de Liège[1]. Il est licencié en philologie romane[3].
-Après une première expérience au studio d'animation 352 au Luxembourg comme superviseur storyboard, il se lance dans la bande dessinée en 2004[4]. De 2004 à 2007, il réalise seul Vieille Bruyère et Bas de Soie assurant le scénario et le dessin, une trilogie publiée aux Éditions Paquet. Il s'agit d'un récit policier d'ambiance situé dans l'Angleterre des années 1930.
-Ensuite, il réalise L'Épée d'Ardenois, une tétralogie publiée aux éditions Paquet de 2010 à 2015. Le récit se déroule dans un monde médiéval fantastique peuplé de personnages animaliers[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Étienne Willem naît le 11 septembre 1972 à Charleroi,. Il fait des études d’histoire à l’université de Liège. Il est licencié en philologie romane.
+Après une première expérience au studio d'animation 352 au Luxembourg comme superviseur storyboard, il se lance dans la bande dessinée en 2004. De 2004 à 2007, il réalise seul Vieille Bruyère et Bas de Soie assurant le scénario et le dessin, une trilogie publiée aux Éditions Paquet. Il s'agit d'un récit policier d'ambiance situé dans l'Angleterre des années 1930.
+Ensuite, il réalise L'Épée d'Ardenois, une tétralogie publiée aux éditions Paquet de 2010 à 2015. Le récit se déroule dans un monde médiéval fantastique peuplé de personnages animaliers.
 De 2016 à 2019, il publie une nouvelle trilogie Les Ailes du singe aux éditions Paquet. L'histoire se passe en 1933 dans les États-Unis de la Grande dépression, peuplée de personnages animaliers.
-La Fille de l'Exposition Universelle est une série en cours, qui réunit Étienne Willem au dessin et Jack Manini au scénario, les couleurs étant réalisées par Tanja Wenisch. Elle est publiée depuis 2018 par Bamboo dans sa collection « Grand Angle ». La série est prévue pour 9 tomes, chacun couvrant une édition des expositions universelles et des expositions coloniales organisées à Paris, entre 1855[6],[7] et 1937. Elle doit suivre son héroïne principale, Julie Petit-Clou, entre les âges de 12 ans et de 93 ans[8].
-Les Artilleuses[9] est une trilogie située dans le monde du Paris des Merveilles de Pierre Pevel, avec Pierre Pevel au scénario et Tanja Wenisch aux couleurs, chez Drakoo de 2020 à 2021.
-Il lance Le Paris des Merveilles, l'adaptation du cycle romanesque éponyme en 2023[9]. Étienne Willem réalise l'adaptation puis la soumet à Pierre Pevel, qui réécrit les dialogues. La mise en couleur est de Tanja Wenisch, et le cycle est publié dans la collection « Drakoo Fantasy » de l'éditeur. Il est prévu d'adapter chaque roman en deux tomes, soit six volumes au final[10].
-En outre, il collabore aux ouvrages collectifs Lanfeust par ses amis (Soleil Productions, 2005) et Népal, 25 avril 2015[11] (Place du Sablon, 2015) et il réalise de nombreuses affiches pour des festivals de bande dessinée[2].
-Du point de vue du style de dessin, Willem est dans la veine semi-réaliste, mais il affectionne particulièrement les histoires à base de personnages animaliers, qu'il a pu déployer dans L'Épée d'Ardenois[8]. Il avoue une attirance particulière pour le rétrofuturisme et l'inspiration steampunk et il parvient à combiner le tout dans Les Ailes du Singe.
+La Fille de l'Exposition Universelle est une série en cours, qui réunit Étienne Willem au dessin et Jack Manini au scénario, les couleurs étant réalisées par Tanja Wenisch. Elle est publiée depuis 2018 par Bamboo dans sa collection « Grand Angle ». La série est prévue pour 9 tomes, chacun couvrant une édition des expositions universelles et des expositions coloniales organisées à Paris, entre 1855, et 1937. Elle doit suivre son héroïne principale, Julie Petit-Clou, entre les âges de 12 ans et de 93 ans.
+Les Artilleuses est une trilogie située dans le monde du Paris des Merveilles de Pierre Pevel, avec Pierre Pevel au scénario et Tanja Wenisch aux couleurs, chez Drakoo de 2020 à 2021.
+Il lance Le Paris des Merveilles, l'adaptation du cycle romanesque éponyme en 2023. Étienne Willem réalise l'adaptation puis la soumet à Pierre Pevel, qui réécrit les dialogues. La mise en couleur est de Tanja Wenisch, et le cycle est publié dans la collection « Drakoo Fantasy » de l'éditeur. Il est prévu d'adapter chaque roman en deux tomes, soit six volumes au final.
+En outre, il collabore aux ouvrages collectifs Lanfeust par ses amis (Soleil Productions, 2005) et Népal, 25 avril 2015 (Place du Sablon, 2015) et il réalise de nombreuses affiches pour des festivals de bande dessinée.
+Du point de vue du style de dessin, Willem est dans la veine semi-réaliste, mais il affectionne particulièrement les histoires à base de personnages animaliers, qu'il a pu déployer dans L'Épée d'Ardenois. Il avoue une attirance particulière pour le rétrofuturisme et l'inspiration steampunk et il parvient à combiner le tout dans Les Ailes du Singe.
 </t>
         </is>
       </c>
@@ -532,7 +546,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89tienne_Willem</t>
+          <t>Étienne_Willem</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -550,9 +564,11 @@
           <t>Vie privée</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il réside dans le village de Saint-Pierre[12] à Libramont-Chevigny en province de Luxembourg[2]. Il est marié à Emmanuelle[13]. Le couple a deux enfants : Nathanaëlle et Matthias[13].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside dans le village de Saint-Pierre à Libramont-Chevigny en province de Luxembourg. Il est marié à Emmanuelle. Le couple a deux enfants : Nathanaëlle et Matthias.
 </t>
         </is>
       </c>
@@ -563,7 +579,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C3%89tienne_Willem</t>
+          <t>Étienne_Willem</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,37 +599,20 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Bandes dessinées
-Vieille Bruyère et Bas de Soie
-1 La Tache noire, Éditions Paquet, Conches, octobre 2004Scénario et dessin : Étienne Willem - Couleurs : Denis Bernatets -  (ISBN 2-940334-59-5),réédition en 2010 avec une nouvelle maquette et une mise en couleur de Ramon Pantoja  (ISBN 978-2-88890-366-6).
+          <t>Bandes dessinées</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Vieille Bruyère et Bas de Soie</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1 La Tache noire, Éditions Paquet, Conches, octobre 2004Scénario et dessin : Étienne Willem - Couleurs : Denis Bernatets -  (ISBN 2-940334-59-5),réédition en 2010 avec une nouvelle maquette et une mise en couleur de Ramon Pantoja  (ISBN 978-2-88890-366-6).
 2 Murder party, Paquet, Conches, mars 2006Scénario et dessin : Étienne Willem - Couleurs : Denis Bernatets -  (ISBN 2-88890-066-1),réédition en 2011 avec une nouvelle maquette et une mise en couleur  (ISBN 978-2-88890-367-3).
-3 Le Cercueil des Souvenirs - Indrani[14], Paquet, coll. « Tekap », Conches, mai 2007Scénario et dessin : Étienne Willem - Couleurs : Keera -  (ISBN 978-2-88890-156-3),réédition en 2011 avec une nouvelle maquette et une mise en couleur de Ramon Pantoja. Les pages 33 à 64 sont inédites.  (ISBN 978-2-88890-365-9)
-Int. Vieille Bruyère et Bas de soie, Paquet, Conches, 27 janvier 2017Scénario et dessin : Étienne Willem - Couleurs : Ramon Pantoja -  (ISBN 978-2-88890-805-0)
-L'Épée d'Ardenois
-1 Garen[15], Paquet, Conches, janvier 2010Scénario et dessin : Étienne Willem - Couleurs : Nicolas Imhof -  (ISBN 978-2-88890-326-0),Préface de Pierre Dubois.
-2 La Prophétie[16],[5],[17], Paquet, Conches, 23 mai 2012Scénario, dessin et couleurs : Étienne Willem -  (ISBN 978-2-88890-368-0)
-3 Nymelle, Paquet, Conches, 12 février 2014Scénario, dessin et couleurs : Étienne Willem -  (ISBN 978-2-88890-619-3)
-4 Nuhy, Paquet, Conches, 20 mai 2015Scénario, dessin et couleurs : Étienne Willem -  (ISBN 978-2-88890-709-1)
-Int. L'Épée d'Ardenois, Paquet, Conches, 15 novembre 2017Scénario, dessin et couleurs : Étienne Willem -  (ISBN 978-2-88890-830-2)
-Les Ailes du singe
-1 Wakanda[18], Paquet, Conches, 29 juin 2016Scénario, dessin et couleurs : Étienne Willem -  (ISBN 978-2-88890-775-6)
-2 Hollywoodland[19],[20],[21], Paquet, Conches, 28 juin 2017Scénario, dessin et couleurs : Étienne Willem -  (ISBN 978-2-88890-824-1)
-3 Chicago[22], Paquet, Conches, 25 septembre 2019Scénario, dessin et couleurs : Étienne Willem -  (ISBN 978-2-88890-879-1)
-Int. Intégrale, Paquet, Conches, 10 novembre 2021Scénario, dessin et couleurs : Étienne Willem -  (ISBN 978-2-88932-575-7)
-La Fille de l'Exposition Universelle
-1 Paris 1855[23],[7], Bamboo, coll. « Grand Angle », Charnay-Les-Mâcon, 13 juin 2018Scénario : Jack Manini - Dessin : Étienne Willem - Couleurs : Tanja Wenisch -  (ISBN 978-2818945209),inspirée par l'exposition universelle de 1855.
-2 Paris 1867[24],[25],[26],[27], Bamboo, coll. « Grand Angle », Charnay-Les-Mâcon, 5 juin 2019Scénario : Jack Manini - Dessin : Étienne Willem - Couleurs : Tanja Wenisch -  (ISBN 978-2818967102),inspirée par l'exposition universelle de 1867.
-3 Paris 1878[28],[29], Bamboo, coll. « Grand Angle », Charnay-Les-Mâcon, 13 janvier 2021Scénario : Jack Manini - Dessin : Étienne Willem - Couleurs : Tanja Wenisch -  (ISBN 978-2818976999),inspirée par l'exposition universelle de 1878.
-Les Artilleuses
-1 Le Vol de la Sigillaire[30],[31],[32], Drakoo, Charnay-Les-Mâcon, 4 mars 2020Scénario : Pierre Pevel - Dessin : Étienne Willem - Couleurs : Tanja Wenisch -  (ISBN 978-2-490-73500-6)
-2 Le Portrait de l'antiquaire[33], Drakoo, Charnay-Les-Mâcon, 28 avril 2021Scénario : Pierre Pevel - Dessin : Étienne Willem - Couleurs : Tanja Wenisch -  (ISBN 978-2-490-73569-3)
-3 Le Secret de l'Elfe[34],[35], Drakoo, Charnay-Les-Mâcon, 3 novembre 2021Scénario : Pierre Pevel - Dessin : Étienne Willem - Couleurs : Tanja Wenisch -  (ISBN 978-2-382-33008-1)
-Le Paris des Merveilles
-1 Les Enchantements d'Ambremer 1/2[36],[37], Drakoo, coll. « Drakoo Fantasy », Charnay-Les-Mâcon, 2 novembre 2022Scénario : Pierre Pevel, Étienne Willem - Dessin : Étienne Willem - Couleurs : Tanja Wenisch -  (ISBN 978-2-490-73532-7),adapté de Pierre Pevel.
-2 Les Enchantements d'Ambremer 2/2[38], Drakoo, coll. « Drakoo Fantasy », Charnay-Les-Mâcon, 13 novembre 2023Scénario : Pierre Pevel, Étienne Willem - Dessin : Étienne Willem - Couleurs : Tanja Wenisch -  (ISBN 978-2-382-33102-6),adapté de Pierre Pevel.
-Ouvrages collectifs
-Lanfeust par ses amis, Soleil Productions, 2005  (ISBN 978-2845650398)
-Népal, 25 avril 2015 - La BD se mobilise[11], Place du sablon, août 2015Scénario et couleurs : collectif - Dessin : collectif dont Étienne Willem -  (ISBN 978-2-88936-006-2),une compilation réalisée par une soixantaine d'auteurs, en soutien aux victimes du séisme ayant frappé le Népal.</t>
+3 Le Cercueil des Souvenirs - Indrani, Paquet, coll. « Tekap », Conches, mai 2007Scénario et dessin : Étienne Willem - Couleurs : Keera -  (ISBN 978-2-88890-156-3),réédition en 2011 avec une nouvelle maquette et une mise en couleur de Ramon Pantoja. Les pages 33 à 64 sont inédites.  (ISBN 978-2-88890-365-9)
+Int. Vieille Bruyère et Bas de soie, Paquet, Conches, 27 janvier 2017Scénario et dessin : Étienne Willem - Couleurs : Ramon Pantoja -  (ISBN 978-2-88890-805-0)</t>
         </is>
       </c>
     </row>
@@ -623,7 +622,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>%C3%89tienne_Willem</t>
+          <t>Étienne_Willem</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -638,15 +637,270 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Bandes dessinées</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>L'Épée d'Ardenois</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1 Garen, Paquet, Conches, janvier 2010Scénario et dessin : Étienne Willem - Couleurs : Nicolas Imhof -  (ISBN 978-2-88890-326-0),Préface de Pierre Dubois.
+2 La Prophétie Paquet, Conches, 23 mai 2012Scénario, dessin et couleurs : Étienne Willem -  (ISBN 978-2-88890-368-0)
+3 Nymelle, Paquet, Conches, 12 février 2014Scénario, dessin et couleurs : Étienne Willem -  (ISBN 978-2-88890-619-3)
+4 Nuhy, Paquet, Conches, 20 mai 2015Scénario, dessin et couleurs : Étienne Willem -  (ISBN 978-2-88890-709-1)
+Int. L'Épée d'Ardenois, Paquet, Conches, 15 novembre 2017Scénario, dessin et couleurs : Étienne Willem -  (ISBN 978-2-88890-830-2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Étienne_Willem</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89tienne_Willem</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Bandes dessinées</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Les Ailes du singe</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>1 Wakanda, Paquet, Conches, 29 juin 2016Scénario, dessin et couleurs : Étienne Willem -  (ISBN 978-2-88890-775-6)
+2 Hollywoodland Paquet, Conches, 28 juin 2017Scénario, dessin et couleurs : Étienne Willem -  (ISBN 978-2-88890-824-1)
+3 Chicago, Paquet, Conches, 25 septembre 2019Scénario, dessin et couleurs : Étienne Willem -  (ISBN 978-2-88890-879-1)
+Int. Intégrale, Paquet, Conches, 10 novembre 2021Scénario, dessin et couleurs : Étienne Willem -  (ISBN 978-2-88932-575-7)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Étienne_Willem</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89tienne_Willem</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Bandes dessinées</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>La Fille de l'Exposition Universelle</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>1 Paris 1855 Bamboo, coll. « Grand Angle », Charnay-Les-Mâcon, 13 juin 2018Scénario : Jack Manini - Dessin : Étienne Willem - Couleurs : Tanja Wenisch -  (ISBN 978-2818945209),inspirée par l'exposition universelle de 1855.
+2 Paris 1867 Bamboo, coll. « Grand Angle », Charnay-Les-Mâcon, 5 juin 2019Scénario : Jack Manini - Dessin : Étienne Willem - Couleurs : Tanja Wenisch -  (ISBN 978-2818967102),inspirée par l'exposition universelle de 1867.
+3 Paris 1878 Bamboo, coll. « Grand Angle », Charnay-Les-Mâcon, 13 janvier 2021Scénario : Jack Manini - Dessin : Étienne Willem - Couleurs : Tanja Wenisch -  (ISBN 978-2818976999),inspirée par l'exposition universelle de 1878.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Étienne_Willem</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89tienne_Willem</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Bandes dessinées</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Les Artilleuses</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>1 Le Vol de la Sigillaire Drakoo, Charnay-Les-Mâcon, 4 mars 2020Scénario : Pierre Pevel - Dessin : Étienne Willem - Couleurs : Tanja Wenisch -  (ISBN 978-2-490-73500-6)
+2 Le Portrait de l'antiquaire, Drakoo, Charnay-Les-Mâcon, 28 avril 2021Scénario : Pierre Pevel - Dessin : Étienne Willem - Couleurs : Tanja Wenisch -  (ISBN 978-2-490-73569-3)
+3 Le Secret de l'Elfe Drakoo, Charnay-Les-Mâcon, 3 novembre 2021Scénario : Pierre Pevel - Dessin : Étienne Willem - Couleurs : Tanja Wenisch -  (ISBN 978-2-382-33008-1)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Étienne_Willem</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89tienne_Willem</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Bandes dessinées</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Le Paris des Merveilles</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>1 Les Enchantements d'Ambremer 1/2 Drakoo, coll. « Drakoo Fantasy », Charnay-Les-Mâcon, 2 novembre 2022Scénario : Pierre Pevel, Étienne Willem - Dessin : Étienne Willem - Couleurs : Tanja Wenisch -  (ISBN 978-2-490-73532-7),adapté de Pierre Pevel.
+2 Les Enchantements d'Ambremer 2/2, Drakoo, coll. « Drakoo Fantasy », Charnay-Les-Mâcon, 13 novembre 2023Scénario : Pierre Pevel, Étienne Willem - Dessin : Étienne Willem - Couleurs : Tanja Wenisch -  (ISBN 978-2-382-33102-6),adapté de Pierre Pevel.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Étienne_Willem</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89tienne_Willem</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Bandes dessinées</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Ouvrages collectifs</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Lanfeust par ses amis, Soleil Productions, 2005  (ISBN 978-2845650398)
+Népal, 25 avril 2015 - La BD se mobilise, Place du sablon, août 2015Scénario et couleurs : collectif - Dessin : collectif dont Étienne Willem -  (ISBN 978-2-88936-006-2),une compilation réalisée par une soixantaine d'auteurs, en soutien aux victimes du séisme ayant frappé le Népal.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Étienne_Willem</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89tienne_Willem</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t>2016 :
- prix du meilleur album jeunesse, décerné par le Festival international de la bande dessinée de Chambéry[39] pour L'Épée d'Ardenois ;
- prix du public France 3, décerné par le Festival international de la bande dessinée de Chambéry[39] pour L'Épée d'Ardenois ;
-2017 : Grand Prix 2017 du festival Wallonie BD[12].</t>
+ prix du meilleur album jeunesse, décerné par le Festival international de la bande dessinée de Chambéry pour L'Épée d'Ardenois ;
+ prix du public France 3, décerné par le Festival international de la bande dessinée de Chambéry pour L'Épée d'Ardenois ;
+2017 : Grand Prix 2017 du festival Wallonie BD.</t>
         </is>
       </c>
     </row>
